--- a/doc/04_画面遷移図_BtwoB.xlsx
+++ b/doc/04_画面遷移図_BtwoB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C736C4EF-290A-4966-8926-9FA46FF45A4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F10FB57-A12E-4536-818E-6C3063BD5E9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32415" yWindow="1275" windowWidth="18195" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -1558,7 +1558,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>ゲーム開始ホップアップ画面</a:t>
+            <a:t>ゲーム開始ポップアップ画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2294,7 +2294,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>ゲーム終了ホップアップ画面</a:t>
+            <a:t>ゲーム終了ポップアップ画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2850,7 +2850,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>削除しますかホップアップ画面</a:t>
+            <a:t>削除選択ポップアップ画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3591,7 +3591,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+      <selection activeCell="Q60" sqref="Q60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/04_画面遷移図_BtwoB.xlsx
+++ b/doc/04_画面遷移図_BtwoB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F10FB57-A12E-4536-818E-6C3063BD5E9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9E5483-E687-451B-8542-9A26501CA3EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32415" yWindow="1275" windowWidth="18195" windowHeight="12990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -643,13 +643,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>120649</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>150812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -664,8 +664,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2787650" y="3302000"/>
-          <a:ext cx="1962150" cy="469900"/>
+          <a:off x="2786063" y="3390899"/>
+          <a:ext cx="2286000" cy="696913"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -692,7 +692,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>登録完了画面</a:t>
+            <a:t>登録完了ポップアップ画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -762,15 +762,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>29369</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:colOff>825500</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:rowOff>135731</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -788,8 +788,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2120900" y="3536950"/>
-          <a:ext cx="669925" cy="0"/>
+          <a:off x="2122488" y="3632994"/>
+          <a:ext cx="663575" cy="106362"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -821,15 +821,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>398463</xdr:colOff>
+      <xdr:colOff>398462</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>790575</xdr:colOff>
+      <xdr:colOff>944563</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>120649</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -847,8 +847,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2360613" y="2619375"/>
-          <a:ext cx="1411287" cy="685800"/>
+          <a:off x="2359025" y="2686050"/>
+          <a:ext cx="1570038" cy="704849"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1069,15 +1069,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>282575</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1092,8 +1092,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13103225" y="6677025"/>
-          <a:ext cx="1965325" cy="758825"/>
+          <a:off x="13134975" y="8731250"/>
+          <a:ext cx="1965325" cy="774700"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1120,7 +1120,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>ヤギのご飯ゲーム画面</a:t>
+            <a:t>ヤギのご飯ゲーム画面（手紙選択）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1823,16 +1823,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>117474</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>473075</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>3174</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1847,8 +1847,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6981825" y="6699249"/>
-          <a:ext cx="1958975" cy="771525"/>
+          <a:off x="6607175" y="8728074"/>
+          <a:ext cx="1958975" cy="787400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1886,14 +1886,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>82549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>187325</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1908,8 +1908,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11049000" y="6677024"/>
-          <a:ext cx="1958975" cy="733425"/>
+          <a:off x="11068050" y="8769349"/>
+          <a:ext cx="1958975" cy="749300"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1946,15 +1946,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1969,8 +1969,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9017000" y="6677025"/>
-          <a:ext cx="1965325" cy="781050"/>
+          <a:off x="8896350" y="8718550"/>
+          <a:ext cx="1965325" cy="796925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2006,252 +2006,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>17463</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>117474</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="185" name="直線矢印コネクタ 184">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B08B7BD-0289-428C-A10C-9879BABCCAE1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="2"/>
-          <a:endCxn id="176" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7961313" y="5619750"/>
-          <a:ext cx="2840037" cy="1079499"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>430213</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="190" name="直線矢印コネクタ 189">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DE6DEFD-DCD0-4D62-A172-FF69837D4522}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="2"/>
-          <a:endCxn id="177" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10801350" y="5619750"/>
-          <a:ext cx="1227138" cy="1057274"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>227013</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="193" name="直線矢印コネクタ 192">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92192834-3863-4F83-BE7C-B12B2025E55E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="2"/>
-          <a:endCxn id="178" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="9999663" y="5619750"/>
-          <a:ext cx="801687" cy="1057275"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>49213</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="196" name="直線矢印コネクタ 195">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8729BDF1-7C24-413D-A996-E04CF14A455A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="50" idx="2"/>
-          <a:endCxn id="70" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10801350" y="5619750"/>
-          <a:ext cx="3284538" cy="1057275"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>460374</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2266,8 +2030,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9623424" y="8401049"/>
-          <a:ext cx="2720976" cy="447676"/>
+          <a:off x="9629774" y="11214099"/>
+          <a:ext cx="2720976" cy="457201"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2304,34 +2068,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>601662</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>46038</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>588962</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>427038</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="240" name="直線矢印コネクタ 239">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{272E5FC6-E95F-4CAA-90DD-5015F39FC0B3}"/>
+        <xdr:cNvPr id="241" name="直線矢印コネクタ 240">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD7D087F-37E2-4977-9B79-9C443AE8B852}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="70" idx="2"/>
+          <a:stCxn id="177" idx="2"/>
           <a:endCxn id="239" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="10983912" y="7439025"/>
-          <a:ext cx="3101976" cy="962024"/>
+          <a:off x="10990262" y="9518649"/>
+          <a:ext cx="1057276" cy="1695450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2362,35 +2126,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>87313</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>3175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>601662</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>427038</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>588962</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="241" name="直線矢印コネクタ 240">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD7D087F-37E2-4977-9B79-9C443AE8B852}"/>
+        <xdr:cNvPr id="242" name="直線矢印コネクタ 241">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{911690F6-3B2D-4F7D-BAB5-23209257804F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="177" idx="2"/>
+          <a:stCxn id="178" idx="2"/>
           <a:endCxn id="239" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="10983912" y="7410449"/>
-          <a:ext cx="1044576" cy="990600"/>
+        <a:xfrm>
+          <a:off x="9879013" y="9515475"/>
+          <a:ext cx="1111249" cy="1698624"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2421,35 +2185,35 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>227013</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>3174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>601662</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:colOff>588962</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="242" name="直線矢印コネクタ 241">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{911690F6-3B2D-4F7D-BAB5-23209257804F}"/>
+        <xdr:cNvPr id="243" name="直線矢印コネクタ 242">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A360CA97-63CD-4EED-AE97-DE84D249E490}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="178" idx="2"/>
+          <a:stCxn id="176" idx="2"/>
           <a:endCxn id="239" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9999663" y="7454900"/>
-          <a:ext cx="984249" cy="946149"/>
+          <a:off x="7586663" y="9515474"/>
+          <a:ext cx="3403599" cy="1698625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2480,38 +2244,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>17463</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>79374</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>601662</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="243" name="直線矢印コネクタ 242">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A360CA97-63CD-4EED-AE97-DE84D249E490}"/>
+        <xdr:cNvPr id="261" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B95533F-E5D4-424A-9A20-1DABB505FA26}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="176" idx="2"/>
-          <a:endCxn id="239" idx="0"/>
+          <a:stCxn id="239" idx="3"/>
+          <a:endCxn id="50" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7961313" y="7470774"/>
-          <a:ext cx="3022599" cy="930275"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11915775" y="5368925"/>
+          <a:ext cx="434975" cy="6073775"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -937227"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
           <a:solidFill>
@@ -2539,39 +2305,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>144463</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>103187</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>588962</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="261" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B95533F-E5D4-424A-9A20-1DABB505FA26}"/>
+        <xdr:cNvPr id="262" name="カギ線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EE98CD-84D2-407D-B5E4-33D1FA575897}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="239" idx="3"/>
-          <a:endCxn id="50" idx="3"/>
+          <a:stCxn id="239" idx="2"/>
+          <a:endCxn id="9" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="11896725" y="5272088"/>
-          <a:ext cx="447675" cy="3352799"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
+        <a:xfrm rot="5400000" flipH="1">
+          <a:off x="5490369" y="6171407"/>
+          <a:ext cx="9239250" cy="1760537"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -667965"/>
+            <a:gd name="adj1" fmla="val -2474"/>
+            <a:gd name="adj2" fmla="val -321101"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="38100">
@@ -2600,77 +2367,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>20638</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>486569</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>94457</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>601662</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="262" name="カギ線コネクタ 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64EE98CD-84D2-407D-B5E4-33D1FA575897}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="239" idx="2"/>
-          <a:endCxn id="9" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1">
-          <a:off x="6867525" y="4732338"/>
-          <a:ext cx="6456362" cy="1776412"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -5565"/>
-            <a:gd name="adj2" fmla="val -278164"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="38100">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>537369</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>94457</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>483394</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:colOff>432594</xdr:colOff>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>142082</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2686,8 +2391,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10300494" y="9190832"/>
-          <a:ext cx="553244" cy="381000"/>
+          <a:off x="10278269" y="11753057"/>
+          <a:ext cx="555625" cy="377825"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2731,15 +2436,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2754,8 +2459,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12406312" y="8377238"/>
-          <a:ext cx="550069" cy="385762"/>
+          <a:off x="12307887" y="10594975"/>
+          <a:ext cx="546100" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2897,6 +2602,1114 @@
             <a:schemeClr val="tx1"/>
           </a:solidFill>
           <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F192E684-2992-4493-A198-01E75D1A13EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13147675" y="9912350"/>
+          <a:ext cx="1965325" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>ヤギのご飯ゲーム画面（手紙給仕）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>58738</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線矢印コネクタ 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B34F59FF-6DAC-490F-AA7F-D5EDB77381AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="70" idx="2"/>
+          <a:endCxn id="84" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14117638" y="9505950"/>
+          <a:ext cx="12700" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>588962</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="直線矢印コネクタ 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEC9A4BC-E52C-4F5A-913A-DC4126345815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+          <a:endCxn id="239" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10990262" y="10687050"/>
+          <a:ext cx="3140076" cy="527049"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6DDDC01-0C93-4FCB-AA74-6FC9E59F82A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6619875" y="7508874"/>
+          <a:ext cx="1958975" cy="787400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>クリック破壊ゲーム説明ポップアップ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB41062-24B8-4475-B8C4-8E41D33B0D4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8756650" y="7499350"/>
+          <a:ext cx="2228850" cy="796925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>スペースキー連打ゲーム説明ポップアップ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>82549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1A5E790-9BC9-4562-BFD1-E9D447331032}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11080750" y="7524749"/>
+          <a:ext cx="1958975" cy="749300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>文字クリックゲーム説明ポップアップ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>301625</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C8909D-6F77-4AAF-AA1E-96127F215343}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13128625" y="6292850"/>
+          <a:ext cx="1965325" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>ヤギのご飯ゲーム説明ポップアップ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>58738</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="95" name="直線矢印コネクタ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91443D8E-4C7A-4E02-B74E-43C350FA95F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="137" idx="2"/>
+          <a:endCxn id="70" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="14104938" y="8274050"/>
+          <a:ext cx="12700" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>439738</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="直線矢印コネクタ 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791B94D8-8377-478F-89BC-7A34BBA0471E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="2"/>
+          <a:endCxn id="93" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820400" y="5724525"/>
+          <a:ext cx="1239838" cy="1800224"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>65088</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直線矢印コネクタ 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{178A4C19-CBF6-4CBC-8879-B9D445FE9D8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="2"/>
+          <a:endCxn id="94" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10807700" y="5724525"/>
+          <a:ext cx="3303588" cy="568325"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="98" name="直線矢印コネクタ 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56E78223-1F31-47CA-B75B-6AA4C3E8BF62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="2"/>
+          <a:endCxn id="92" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9871075" y="5724525"/>
+          <a:ext cx="949325" cy="1774825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>246063</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="99" name="直線矢印コネクタ 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7EDBEF-CAEA-4F16-9FF6-B4BCCA9998EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="50" idx="2"/>
+          <a:endCxn id="91" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7599363" y="5724525"/>
+          <a:ext cx="3221037" cy="1784349"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>427038</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>82549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>439738</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>82549</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="112" name="直線矢印コネクタ 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD7DEDE4-0DE9-4AB3-984E-C1850BCA34E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="93" idx="2"/>
+          <a:endCxn id="177" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12047538" y="8274049"/>
+          <a:ext cx="12700" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>87313</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="直線矢印コネクタ 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBEF9957-4D98-4C49-9214-9CC37E691EC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="92" idx="2"/>
+          <a:endCxn id="178" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9871075" y="8296275"/>
+          <a:ext cx="7938" cy="422275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>233363</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>246063</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>41274</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="直線矢印コネクタ 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{429490C5-23E7-4C85-916B-2F13FB0E245F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="91" idx="2"/>
+          <a:endCxn id="176" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7586663" y="8296274"/>
+          <a:ext cx="12700" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EAF24EE-B1F6-43D0-ACD3-3E1D57A1BD04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="7353300"/>
+          <a:ext cx="5130800" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>備考</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>次回から表示しないチェックボックスにチェックを付けると</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>説明画面は表示しない</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>307975</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D872FF2-8197-48D7-8C4F-144A40E6EF7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13134975" y="7499350"/>
+          <a:ext cx="1965325" cy="774700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>ヤギのご飯ゲーム説明ポップアップ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>65088</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="139" name="直線矢印コネクタ 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{945AFBC2-4F53-4D18-954B-6D0322D46966}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="94" idx="2"/>
+          <a:endCxn id="137" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14111288" y="7067550"/>
+          <a:ext cx="6350" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3590,8 +4403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q60" sqref="Q60"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3642,7 +4455,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="5">
-        <v>45084</v>
+        <v>45086</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.2">

--- a/doc/04_画面遷移図_BtwoB.xlsx
+++ b/doc/04_画面遷移図_BtwoB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9E5483-E687-451B-8542-9A26501CA3EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E0C3CD-B18A-4D7C-BBCF-52850B20A788}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30390" yWindow="300" windowWidth="23940" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1438,7 +1438,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>アイキャッチ画面</a:t>
+            <a:t>アイキャッチモーダル画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1627,15 +1627,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>130175</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>949325</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1650,8 +1650,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3807619" y="5014913"/>
-          <a:ext cx="557212" cy="377825"/>
+          <a:off x="3381375" y="4921250"/>
+          <a:ext cx="549275" cy="371475"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2058,7 +2058,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>ゲーム終了ポップアップ画面</a:t>
+            <a:t>ゲーム終了モーダル画面</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2855,7 +2855,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>クリック破壊ゲーム説明ポップアップ</a:t>
+            <a:t>クリック破壊ゲーム説明モーダル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2916,7 +2916,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>スペースキー連打ゲーム説明ポップアップ</a:t>
+            <a:t>スペースキー連打ゲーム説明モーダル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2977,7 +2977,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>文字クリックゲーム説明ポップアップ</a:t>
+            <a:t>文字クリックゲーム説明モーダル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3038,7 +3038,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>ヤギのご飯ゲーム説明ポップアップ</a:t>
+            <a:t>ヤギのご飯ゲーム説明モーダル</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
@@ -3659,7 +3659,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
-            <a:t>ヤギのご飯ゲーム説明ポップアップ</a:t>
+            <a:t>ヤギのご飯ゲーム説明モーダル</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1"/>
@@ -4401,10 +4401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -4412,9 +4412,11 @@
     <col min="1" max="1" width="13.453125" customWidth="1"/>
     <col min="2" max="3" width="14.6328125" customWidth="1"/>
     <col min="4" max="4" width="18.7265625" customWidth="1"/>
+    <col min="5" max="5" width="18.54296875" customWidth="1"/>
+    <col min="6" max="6" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4428,7 +4430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4442,23 +4444,31 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="5">
         <v>45086</v>
       </c>
+      <c r="E4" s="5">
+        <v>45091</v>
+      </c>
+      <c r="F4" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>

--- a/doc/04_画面遷移図_BtwoB.xlsx
+++ b/doc/04_画面遷移図_BtwoB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E0C3CD-B18A-4D7C-BBCF-52850B20A788}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132D8E64-D657-4157-92C4-BE9880C6F0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30390" yWindow="300" windowWidth="23940" windowHeight="14475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -3710,6 +3710,152 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>696383</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>249766</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>37571</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15346</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F09C84-DF0B-43CA-9FB2-B8BF3101F8A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2664883" y="1096433"/>
+          <a:ext cx="2971271" cy="707496"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="ＭＳ Ｐゴシック" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ログイン失敗ポップアップ画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>398463</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15346</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1155436</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2670E344-D33E-4A13-8014-72BB3AF672DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2366963" y="1803929"/>
+          <a:ext cx="1783556" cy="428096"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -4403,8 +4549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
